--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>EDA</t>
   </si>
@@ -444,7 +444,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13:L13"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -499,9 +499,6 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -132,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,6 +142,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -158,9 +164,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,7 +451,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -493,16 +500,22 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="L2" t="s">
